--- a/rhla_analysis/rhla1_6_uniform_result/k5.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k5.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002783284866601191</v>
+        <v>0.002986274433780374</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08299530442013754</v>
+        <v>0.08305422090188488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1730605285592498</v>
+        <v>0.1262729124236253</v>
       </c>
       <c r="D2" t="n">
-        <v>29.81919149421715</v>
+        <v>27.81198538298611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001614411487126027</v>
+        <v>0.00194066755298288</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0820682639282594</v>
+        <v>0.08218022014431739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1990622335890878</v>
+        <v>0.143245078071962</v>
       </c>
       <c r="D3" t="n">
-        <v>50.83478690699682</v>
+        <v>42.34636685608684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002392603696688214</v>
+        <v>0.002686304902061728</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08622796656084553</v>
+        <v>0.08698536702975335</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1841432225063939</v>
+        <v>0.1242362525458248</v>
       </c>
       <c r="D4" t="n">
-        <v>36.03938532745739</v>
+        <v>32.38104764764135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002839452116704817</v>
+        <v>0.002911253005373089</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08146934952961928</v>
+        <v>0.08178186814286453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20076726342711</v>
+        <v>0.1384928716904277</v>
       </c>
       <c r="D5" t="n">
-        <v>28.69192582974931</v>
+        <v>28.09163888948355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002154499809001341</v>
+        <v>0.002555893343796275</v>
       </c>
       <c r="B6" t="n">
-        <v>0.084579343227165</v>
+        <v>0.0844636293331585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1952259164535379</v>
+        <v>0.1388323150033944</v>
       </c>
       <c r="D6" t="n">
-        <v>39.25706694138415</v>
+        <v>33.04661735520796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0019292356795518</v>
+        <v>0.002000282840040302</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08092489321910593</v>
+        <v>0.08099268191266375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1854219948849105</v>
+        <v>0.1405295315682281</v>
       </c>
       <c r="D7" t="n">
-        <v>41.94660822254044</v>
+        <v>40.49061477277477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001639411831739653</v>
+        <v>0.001663365318825319</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08306417412250841</v>
+        <v>0.08219142929959362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2033248081841432</v>
+        <v>0.1429056347589953</v>
       </c>
       <c r="D8" t="n">
-        <v>50.66705785230629</v>
+        <v>49.41273475488706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00150535187190378</v>
+        <v>0.001836725248016762</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07988287270824453</v>
+        <v>0.07957061876332215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1896845694799659</v>
+        <v>0.141887304820095</v>
       </c>
       <c r="D9" t="n">
-        <v>53.06591382333666</v>
+        <v>43.32200412077962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005773118976150823</v>
+        <v>0.00488797884767927</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08482775037097284</v>
+        <v>0.08479318322181299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1832907075873828</v>
+        <v>0.13306177868296</v>
       </c>
       <c r="D10" t="n">
-        <v>14.69357391063695</v>
+        <v>17.34728931203771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003429416827865575</v>
+        <v>0.0035244826897023</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08306582999058057</v>
+        <v>0.08342678972379831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1952259164535379</v>
+        <v>0.1463000678886626</v>
       </c>
       <c r="D11" t="n">
-        <v>24.22156132075659</v>
+        <v>23.67064816846783</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k5.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k5.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002986274433780374</v>
+        <v>0.002986274433780381</v>
       </c>
       <c r="B2" t="n">
         <v>0.08305422090188488</v>
@@ -466,12 +466,12 @@
         <v>0.1262729124236253</v>
       </c>
       <c r="D2" t="n">
-        <v>27.81198538298611</v>
+        <v>27.81198538298604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00194066755298288</v>
+        <v>0.001940667552982886</v>
       </c>
       <c r="B3" t="n">
         <v>0.08218022014431739</v>
@@ -480,12 +480,12 @@
         <v>0.143245078071962</v>
       </c>
       <c r="D3" t="n">
-        <v>42.34636685608684</v>
+        <v>42.34636685608672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002686304902061728</v>
+        <v>0.002686304902061732</v>
       </c>
       <c r="B4" t="n">
         <v>0.08698536702975335</v>
@@ -494,12 +494,12 @@
         <v>0.1242362525458248</v>
       </c>
       <c r="D4" t="n">
-        <v>32.38104764764135</v>
+        <v>32.3810476476413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002911253005373089</v>
+        <v>0.002911253005373091</v>
       </c>
       <c r="B5" t="n">
         <v>0.08178186814286453</v>
@@ -508,12 +508,12 @@
         <v>0.1384928716904277</v>
       </c>
       <c r="D5" t="n">
-        <v>28.09163888948355</v>
+        <v>28.09163888948353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002555893343796275</v>
+        <v>0.002555893343796286</v>
       </c>
       <c r="B6" t="n">
         <v>0.0844636293331585</v>
@@ -522,12 +522,12 @@
         <v>0.1388323150033944</v>
       </c>
       <c r="D6" t="n">
-        <v>33.04661735520796</v>
+        <v>33.04661735520782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.002000282840040302</v>
+        <v>0.00200028284004031</v>
       </c>
       <c r="B7" t="n">
         <v>0.08099268191266375</v>
@@ -536,12 +536,12 @@
         <v>0.1405295315682281</v>
       </c>
       <c r="D7" t="n">
-        <v>40.49061477277477</v>
+        <v>40.49061477277461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001663365318825319</v>
+        <v>0.001663365318825332</v>
       </c>
       <c r="B8" t="n">
         <v>0.08219142929959362</v>
@@ -550,12 +550,12 @@
         <v>0.1429056347589953</v>
       </c>
       <c r="D8" t="n">
-        <v>49.41273475488706</v>
+        <v>49.41273475488667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001836725248016762</v>
+        <v>0.00183672524801676</v>
       </c>
       <c r="B9" t="n">
         <v>0.07957061876332215</v>
@@ -564,12 +564,12 @@
         <v>0.141887304820095</v>
       </c>
       <c r="D9" t="n">
-        <v>43.32200412077962</v>
+        <v>43.32200412077968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00488797884767927</v>
+        <v>0.004887978847679287</v>
       </c>
       <c r="B10" t="n">
         <v>0.08479318322181299</v>
@@ -578,12 +578,12 @@
         <v>0.13306177868296</v>
       </c>
       <c r="D10" t="n">
-        <v>17.34728931203771</v>
+        <v>17.34728931203765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0035244826897023</v>
+        <v>0.003524482689702292</v>
       </c>
       <c r="B11" t="n">
         <v>0.08342678972379831</v>
@@ -592,7 +592,7 @@
         <v>0.1463000678886626</v>
       </c>
       <c r="D11" t="n">
-        <v>23.67064816846783</v>
+        <v>23.67064816846788</v>
       </c>
     </row>
   </sheetData>
